--- a/analysis/results/Q1/alpha_diversity/alpha_diversity_results_terminal_ileum.xlsx
+++ b/analysis/results/Q1/alpha_diversity/alpha_diversity_results_terminal_ileum.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Comparison</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">sig</t>
   </si>
   <si>
-    <t xml:space="preserve">pre_ltx vs Grouphealthy</t>
+    <t xml:space="preserve">healthy vs Grouppre_ltx</t>
   </si>
   <si>
     <t xml:space="preserve">***</t>
   </si>
   <si>
-    <t xml:space="preserve">pre_ltx , healthy - CZ vs NO</t>
+    <t xml:space="preserve">healthy , pre_ltx - CZ vs NO</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">pre_ltx vs Grouphealthy:CountryNO</t>
+    <t xml:space="preserve">healthy vs Grouppre_ltx:CountryNO</t>
   </si>
   <si>
     <t xml:space="preserve">pre_ltx vs Grouppost_ltx</t>
@@ -62,19 +62,16 @@
     <t xml:space="preserve">pre_ltx vs Grouppost_ltx:CountryNO</t>
   </si>
   <si>
-    <t xml:space="preserve">post_ltx vs Grouphealthy</t>
+    <t xml:space="preserve">healthy vs Grouppost_ltx</t>
   </si>
   <si>
     <t xml:space="preserve">*</t>
   </si>
   <si>
-    <t xml:space="preserve">post_ltx , healthy - CZ vs NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">post_ltx vs Grouphealthy:CountryNO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**</t>
+    <t xml:space="preserve">healthy , post_ltx - CZ vs NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">healthy vs Grouppost_ltx:CountryNO</t>
   </si>
 </sst>
 </file>
@@ -434,19 +431,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>53.6418918918919</v>
+        <v>-53.6418918918919</v>
       </c>
       <c r="C2" t="n">
-        <v>11.7419507423116</v>
+        <v>11.7419507423117</v>
       </c>
       <c r="D2" t="n">
-        <v>4.56839694435061</v>
+        <v>-4.5683969443506</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0000107374937142076</v>
+        <v>0.000010737493714208</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000096637443427868</v>
+        <v>0.0000966374434278722</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -457,19 +454,19 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>17.5326086956521</v>
+        <v>11.2192192192192</v>
       </c>
       <c r="C3" t="n">
-        <v>11.2809663265601</v>
+        <v>10.4879627740154</v>
       </c>
       <c r="D3" t="n">
-        <v>1.55417613953629</v>
+        <v>1.06972340205245</v>
       </c>
       <c r="E3" t="n">
-        <v>0.122416342860225</v>
+        <v>0.286597899080415</v>
       </c>
       <c r="F3" t="n">
-        <v>0.157392440820289</v>
+        <v>0.360611710559031</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,19 +477,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>-6.31338947643291</v>
+        <v>6.31338947643298</v>
       </c>
       <c r="C4" t="n">
         <v>15.4031673499355</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.409876055554208</v>
+        <v>0.409876055554212</v>
       </c>
       <c r="E4" t="n">
-        <v>0.682527868900789</v>
+        <v>0.682527868900786</v>
       </c>
       <c r="F4" t="n">
-        <v>0.682527868900789</v>
+        <v>0.682527868900786</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -538,7 +535,7 @@
         <v>0.166114032651698</v>
       </c>
       <c r="F6" t="n">
-        <v>0.18687828673316</v>
+        <v>0.249171048977547</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -572,19 +569,19 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>28.019342872284</v>
+        <v>-28.0193428722841</v>
       </c>
       <c r="C8" t="n">
-        <v>9.23672572957163</v>
+        <v>9.23672572957162</v>
       </c>
       <c r="D8" t="n">
-        <v>3.03347135041363</v>
+        <v>-3.03347135041365</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00272705514175033</v>
+        <v>0.00272705514175019</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0122717481378765</v>
+        <v>0.0122717481378758</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -595,19 +592,19 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-18.4003267973856</v>
+        <v>11.2192192192191</v>
       </c>
       <c r="C9" t="n">
-        <v>9.33039012186414</v>
+        <v>11.2673273879844</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.97208547092449</v>
+        <v>0.995730294584617</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0499315264106098</v>
+        <v>0.320543742719139</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0748972896159147</v>
+        <v>0.360611710559031</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -618,19 +615,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>29.6195460166049</v>
+        <v>-29.6195460166047</v>
       </c>
       <c r="C10" t="n">
         <v>14.6290411953144</v>
       </c>
       <c r="D10" t="n">
-        <v>2.02470863408956</v>
+        <v>-2.02470863408955</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0441817364986889</v>
+        <v>0.0441817364986902</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0748972896159147</v>
+        <v>0.0795271256976424</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -678,22 +675,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.505199590305766</v>
+        <v>-0.505199590305766</v>
       </c>
       <c r="C2" t="n">
-        <v>0.159313198458029</v>
+        <v>0.15931319845803</v>
       </c>
       <c r="D2" t="n">
-        <v>3.17110945731756</v>
+        <v>-3.17110945731755</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00186876305443547</v>
+        <v>0.00186876305443549</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00910380059754971</v>
+        <v>0.0168188674899194</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -701,19 +698,19 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.150186465930438</v>
+        <v>0.00655261583069825</v>
       </c>
       <c r="C3" t="n">
-        <v>0.153058624297022</v>
+        <v>0.142299259425117</v>
       </c>
       <c r="D3" t="n">
-        <v>0.981234913225077</v>
+        <v>0.046048137264878</v>
       </c>
       <c r="E3" t="n">
-        <v>0.328181706355651</v>
+        <v>0.963337973541263</v>
       </c>
       <c r="F3" t="n">
-        <v>0.406174225429513</v>
+        <v>0.963337973541263</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -724,19 +721,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.14363385009974</v>
+        <v>0.143633850099741</v>
       </c>
       <c r="C4" t="n">
         <v>0.208988089863116</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.687282467598122</v>
+        <v>0.687282467598126</v>
       </c>
       <c r="E4" t="n">
-        <v>0.493049877549975</v>
+        <v>0.493049877549973</v>
       </c>
       <c r="F4" t="n">
-        <v>0.493049877549975</v>
+        <v>0.633921271135679</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -759,7 +756,7 @@
         <v>0.0127188005825658</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0365649813105292</v>
+        <v>0.048753308414039</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
@@ -782,7 +779,7 @@
         <v>0.361043755937345</v>
       </c>
       <c r="F6" t="n">
-        <v>0.406174225429513</v>
+        <v>0.541565633906018</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -805,7 +802,7 @@
         <v>0.0162511028046796</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0365649813105292</v>
+        <v>0.048753308414039</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
@@ -816,19 +813,19 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>0.133631433207172</v>
+        <v>-0.133631433207174</v>
       </c>
       <c r="C8" t="n">
         <v>0.111315964411659</v>
       </c>
       <c r="D8" t="n">
-        <v>1.20046961739457</v>
+        <v>-1.20046961739458</v>
       </c>
       <c r="E8" t="n">
-        <v>0.231328990440207</v>
+        <v>0.231328990440202</v>
       </c>
       <c r="F8" t="n">
-        <v>0.34699348566031</v>
+        <v>0.416392182792363</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -839,22 +836,22 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.35156270086797</v>
+        <v>0.006552615830697</v>
       </c>
       <c r="C9" t="n">
-        <v>0.112444756417001</v>
+        <v>0.135787664509722</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.12653708425674</v>
+        <v>0.0482563409154728</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00202306679945549</v>
+        <v>0.961558475809512</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00910380059754971</v>
+        <v>0.963337973541263</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -862,19 +859,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>0.35811531669867</v>
+        <v>-0.358115316698667</v>
       </c>
       <c r="C10" t="n">
         <v>0.176301199878741</v>
       </c>
       <c r="D10" t="n">
-        <v>2.0312698776014</v>
+        <v>-2.03126987760139</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0435059369349156</v>
+        <v>0.0435059369349167</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0783106864828481</v>
+        <v>0.0978883581035626</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -922,19 +919,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0462750237387385</v>
+        <v>-0.0462750237387387</v>
       </c>
       <c r="C2" t="n">
         <v>0.0186527230359692</v>
       </c>
       <c r="D2" t="n">
-        <v>2.48087229138091</v>
+        <v>-2.48087229138092</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0142992845782305</v>
+        <v>0.0142992845782302</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0643467806020372</v>
+        <v>0.128693561204072</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -945,19 +942,19 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0189437205072461</v>
+        <v>-0.00776755151651656</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0179204243898911</v>
+        <v>0.0166606954098627</v>
       </c>
       <c r="D3" t="n">
-        <v>1.05710222565556</v>
+        <v>-0.466220126197037</v>
       </c>
       <c r="E3" t="n">
-        <v>0.292298662066765</v>
+        <v>0.64178774498884</v>
       </c>
       <c r="F3" t="n">
-        <v>0.375812565514412</v>
+        <v>0.692428766390511</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -968,19 +965,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0267112720237626</v>
+        <v>0.0267112720237628</v>
       </c>
       <c r="C4" t="n">
         <v>0.0244687633903723</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.09164781225817</v>
+        <v>1.09164781225818</v>
       </c>
       <c r="E4" t="n">
-        <v>0.276876498148743</v>
+        <v>0.276876498148738</v>
       </c>
       <c r="F4" t="n">
-        <v>0.375812565514412</v>
+        <v>0.498377696667729</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -1003,7 +1000,7 @@
         <v>0.0794314601155343</v>
       </c>
       <c r="F5" t="n">
-        <v>0.178720785259952</v>
+        <v>0.238294380346603</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1026,7 +1023,7 @@
         <v>0.418067326632233</v>
       </c>
       <c r="F6" t="n">
-        <v>0.470325742461262</v>
+        <v>0.62710098994835</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1049,7 +1046,7 @@
         <v>0.0433663148574216</v>
       </c>
       <c r="F7" t="n">
-        <v>0.130098944572265</v>
+        <v>0.195148416858397</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -1060,19 +1057,19 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00919541344462097</v>
+        <v>-0.00919541344462109</v>
       </c>
       <c r="C8" t="n">
         <v>0.0160753650854759</v>
       </c>
       <c r="D8" t="n">
-        <v>0.572018949226169</v>
+        <v>-0.572018949226178</v>
       </c>
       <c r="E8" t="n">
-        <v>0.56792980235712</v>
+        <v>0.567929802357114</v>
       </c>
       <c r="F8" t="n">
-        <v>0.56792980235712</v>
+        <v>0.692428766390511</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -1083,19 +1080,19 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0409505475163399</v>
+        <v>-0.00776755151651663</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0162383762374462</v>
+        <v>0.0196093731266211</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.52183758508481</v>
+        <v>-0.396114218764681</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0124273757496344</v>
+        <v>0.692428766390511</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0643467806020372</v>
+        <v>0.692428766390511</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -1106,19 +1103,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0331829959998235</v>
+        <v>-0.0331829959998233</v>
       </c>
       <c r="C10" t="n">
         <v>0.0254600152640942</v>
       </c>
       <c r="D10" t="n">
-        <v>1.30333763179714</v>
+        <v>-1.30333763179713</v>
       </c>
       <c r="E10" t="n">
-        <v>0.193907299646963</v>
+        <v>0.193907299646965</v>
       </c>
       <c r="F10" t="n">
-        <v>0.349033139364534</v>
+        <v>0.436291424205672</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -1166,19 +1163,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0404256988729567</v>
+        <v>-0.0404256988729569</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0236644736454056</v>
+        <v>0.0236644736454057</v>
       </c>
       <c r="D2" t="n">
-        <v>1.70828641611495</v>
+        <v>-1.70828641611496</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0898153871036235</v>
+        <v>0.0898153871036228</v>
       </c>
       <c r="F2" t="n">
-        <v>0.214020144897177</v>
+        <v>0.285360193196235</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -1189,19 +1186,19 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00197642298939058</v>
+        <v>-0.00833324035941611</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0227354156211555</v>
+        <v>0.0211372134074224</v>
       </c>
       <c r="D3" t="n">
-        <v>0.086931465090592</v>
+        <v>-0.394244983896026</v>
       </c>
       <c r="E3" t="n">
-        <v>0.930851093672006</v>
+        <v>0.69400437205473</v>
       </c>
       <c r="F3" t="n">
-        <v>0.942972463000467</v>
+        <v>0.942972463000473</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -1212,19 +1209,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0103096633488066</v>
+        <v>0.0103096633488069</v>
       </c>
       <c r="C4" t="n">
         <v>0.0310432104347731</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.332106866667959</v>
+        <v>0.332106866667969</v>
       </c>
       <c r="E4" t="n">
-        <v>0.74030883232837</v>
+        <v>0.740308832328362</v>
       </c>
       <c r="F4" t="n">
-        <v>0.942972463000467</v>
+        <v>0.942972463000473</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -1247,7 +1244,7 @@
         <v>0.0559921433033675</v>
       </c>
       <c r="F5" t="n">
-        <v>0.214020144897177</v>
+        <v>0.285360193196235</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1270,7 +1267,7 @@
         <v>0.934552795124579</v>
       </c>
       <c r="F6" t="n">
-        <v>0.942972463000467</v>
+        <v>0.942972463000473</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1293,7 +1290,7 @@
         <v>0.0951200643987451</v>
       </c>
       <c r="F7" t="n">
-        <v>0.214020144897177</v>
+        <v>0.285360193196235</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -1304,19 +1301,19 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.00120233091193012</v>
+        <v>0.00120233091192999</v>
       </c>
       <c r="C8" t="n">
         <v>0.0167873442066992</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0716212699951858</v>
+        <v>0.0716212699951779</v>
       </c>
       <c r="E8" t="n">
-        <v>0.942972463000467</v>
+        <v>0.942972463000473</v>
       </c>
       <c r="F8" t="n">
-        <v>0.942972463000467</v>
+        <v>0.942972463000473</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -1327,22 +1324,22 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0488918209124436</v>
+        <v>-0.00833324035941616</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0169575751347749</v>
+        <v>0.0204778737281437</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.88318468435863</v>
+        <v>-0.406938751065908</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0043524788260164</v>
+        <v>0.68447343571358</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0391723094341476</v>
+        <v>0.942972463000473</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1350,19 +1347,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0405585805530277</v>
+        <v>-0.0405585805530275</v>
       </c>
       <c r="C10" t="n">
         <v>0.0265876412432043</v>
       </c>
       <c r="D10" t="n">
-        <v>1.52546742232707</v>
+        <v>-1.52546742232706</v>
       </c>
       <c r="E10" t="n">
-        <v>0.128668958637094</v>
+        <v>0.128668958637096</v>
       </c>
       <c r="F10" t="n">
-        <v>0.231604125546769</v>
+        <v>0.289505156933465</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
